--- a/민원 처리 시스템 설계서.xlsx
+++ b/민원 처리 시스템 설계서.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="10980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="10980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="화면 및 역할분담" sheetId="1" r:id="rId1"/>
+    <sheet name="기능 목록 정의" sheetId="2" r:id="rId2"/>
+    <sheet name="데이터 구조" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="146">
   <si>
     <t>화면 및 역할 분담</t>
   </si>
@@ -58,9 +58,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>itemId</t>
-  </si>
-  <si>
     <t>기능 목록 정의</t>
   </si>
   <si>
@@ -88,21 +85,12 @@
     <t>없음</t>
   </si>
   <si>
-    <t>저장된 배열을 읽어 카드/표로 렌더링</t>
-  </si>
-  <si>
-    <t>전체 목록 출력</t>
-  </si>
-  <si>
     <t>검색</t>
   </si>
   <si>
     <t>검색어</t>
   </si>
   <si>
-    <t>물품명/장소에 includes로 필터</t>
-  </si>
-  <si>
     <t>검색 결과만 표시</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>id로 해당 객체 find</t>
   </si>
   <si>
-    <t>상세 화면/모달 표시</t>
-  </si>
-  <si>
     <t>데이터 구조</t>
   </si>
   <si>
@@ -224,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minwonId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">manage </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담당자 배정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>officerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배정완료 메시지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +269,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>minwon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,11 +389,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>민원 상세정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이순신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 배열을 읽어 표로 렌더링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류별 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 배열에서 분류가 같은 항목만 표로 렌더링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류별 목록 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목/내용에 includes로 필터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minwon.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 목록 출력 (분류/제목/상태/담당자/작성일자 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 한 객체의 상태값 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minwon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 확인버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 취소버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 값을 반영하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세화면 페이지로 이동(분류/제목/내용/담당자/작성일자 표시, 담당자 선택 드롭다운, 상태버튼(현재 상태 하이라이트), 확인/취소 버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭다운 목록에서 담당자를 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 상태와 담당자를 반영하여 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 값 화면 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 값 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체목록으로 되돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭다운에서 분류 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 버튼(접수/처리중/완료) 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭다운에서 담당자 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원인이 입력한 분류를 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상 하단 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지 공통으로 지정된 상 하단 내용 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지에 상하단 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 하단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 및 메뉴 선택 내비게이션 바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처, 저작권 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,6 +856,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1054,19 +1212,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="13" t="b">
@@ -1079,19 +1237,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="13" t="b">
@@ -1104,19 +1262,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="13" t="b">
@@ -1129,19 +1287,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="13" t="b">
@@ -1154,19 +1312,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="2" t="b">
@@ -1179,19 +1337,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="2" t="b">
@@ -1204,19 +1362,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="2" t="b">
@@ -1229,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2" t="b">
@@ -1254,19 +1412,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2" t="b">
@@ -1274,12 +1432,22 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+    <row r="13" spans="2:10" ht="33">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2" t="b">
@@ -1288,11 +1456,21 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2" t="b">
@@ -1572,24 +1750,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="37" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="27" thickBot="1">
       <c r="B2" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1602,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>7</v>
@@ -1622,52 +1800,52 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" spans="2:7" ht="33">
+    <row r="5" spans="2:7" ht="49.5">
       <c r="B5" s="26">
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="2:7" ht="33">
+    <row r="6" spans="2:7" s="12" customFormat="1" ht="33">
       <c r="B6" s="26">
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -1676,214 +1854,297 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="2:7" ht="115.5">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="2:7" s="12" customFormat="1" ht="49.5">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="2:7" ht="66">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" ht="49.5">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" ht="33">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" ht="33">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="14" spans="2:7" ht="33">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="9"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
     </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,15 +2156,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
@@ -1911,7 +2172,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="26.25">
       <c r="B2" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1923,46 +2184,46 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="32" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H4" s="28">
         <v>1</v>
@@ -1974,16 +2235,16 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I5" s="12"/>
     </row>
@@ -1992,16 +2253,16 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="27" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I6" s="12"/>
     </row>
@@ -2010,16 +2271,16 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="27" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>99</v>
+        <v>132</v>
+      </c>
+      <c r="H7" s="28">
+        <v>2</v>
       </c>
       <c r="I7" s="12"/>
     </row>
@@ -2028,16 +2289,16 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I8" s="12"/>
     </row>
@@ -2046,13 +2307,13 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="30" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H9" s="30">
         <v>3</v>
@@ -2064,13 +2325,13 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H10" s="31">
         <v>46076</v>
@@ -2079,22 +2340,22 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="35" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H11" s="13">
         <v>3</v>
@@ -2106,37 +2367,59 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="B13" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2</v>
+      </c>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9">
@@ -2421,7 +2704,10 @@
       <c r="H45" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D4:D10"/>
     <mergeCell ref="C4:C10"/>
